--- a/lesson28_api_v7/data/demo.xlsx
+++ b/lesson28_api_v7/data/demo.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengcong\py37\lesson27_api_v6\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B48107F7-330C-4D42-9B22-4C8260A2B465}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="12390" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24870" windowHeight="12390" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -18,13 +12,14 @@
     <sheet name="recharge" sheetId="3" r:id="rId3"/>
     <sheet name="withdraw" sheetId="4" r:id="rId4"/>
     <sheet name="add" sheetId="5" r:id="rId5"/>
+    <sheet name="audit" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="174">
   <si>
     <t>case_id</t>
   </si>
@@ -401,123 +396,168 @@
     <t>/loan/add</t>
   </si>
   <si>
+    <t>{"member_id":"#wrong_member_id#","title":"错误会员号","amount":100,"loan_rate":18,"loan_term":6,"loan_date_type":1,"bidding_days":3}</t>
+  </si>
+  <si>
+    <t>{"member_id":"","title":"会员号为空","amount":100,"loan_rate":18,"loan_term":6,"loan_date_type":1,"bidding_days":3}</t>
+  </si>
+  <si>
     <t>title为空</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","title":"","amount":100,"loan_rate":18,"loan_term":6,"loan_date_type":1,"bidding_days":3}</t>
+  </si>
+  <si>
     <t>amount为空</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","title":"amount为空","amount":"","loan_rate":18,"loan_term":6,"loan_date_type":1,"bidding_days":3}</t>
+  </si>
+  <si>
     <t>loan_rate为空</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","title":"loan_rate为空","amount":100,"loan_rate":"","loan_term":6,"loan_date_type":1,"bidding_days":3}</t>
+  </si>
+  <si>
     <t>loan_term为空</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","title":"loan_term为空","amount":100,"loan_rate":18,"loan_term":"","loan_date_type":1,"bidding_days":3}</t>
+  </si>
+  <si>
     <t>loan_date_type为空</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","title":"loan_date_type为空","amount":100,"loan_rate":18,"loan_term":6,"loan_date_type":"","bidding_days":3}</t>
+  </si>
+  <si>
     <t>bidding_days为空</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","title":"bidding_days为空","amount":100,"loan_rate":18,"loan_term":6,"loan_date_type":1,"bidding_days":""}</t>
+  </si>
+  <si>
     <t>借款金额为负数</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","title":"借款金额为负数","amount":-100,"loan_rate":18,"loan_term":6,"loan_date_type":1,"bidding_days":10}</t>
+  </si>
+  <si>
     <t>借款金额为0</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","title":"借款金额为零","amount":0,"loan_rate":18,"loan_term":6,"loan_date_type":1,"bidding_days":10}</t>
+  </si>
+  <si>
     <t>借款期限为6个月,loan_date_type=1</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","title":"借款期限为6个月","amount":2000,"loan_rate":18,"loan_term":6,"loan_date_type":1,"bidding_days":10}</t>
+  </si>
+  <si>
     <t>借款期限为30天,loan_date_type=2</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","title":"借款期限为30天","amount":2000,"loan_rate":18,"loan_term":30,"loan_date_type":2,"bidding_days":10}</t>
+  </si>
+  <si>
     <t>借款期限参数错误</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","title":"借款期限参数错误","amount":2000,"loan_rate":18,"loan_term":500,"loan_date_type":1,"bidding_days":10}</t>
+  </si>
+  <si>
     <t>借款期限类型错误</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","title":"借款期限类型错误","amount":2000,"loan_rate":18,"loan_term":30,"loan_date_type":3,"bidding_days":10}</t>
+  </si>
+  <si>
     <t>竞标天数为0</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","title":"竞标天数为0","amount":2000,"loan_rate":18,"loan_term":30,"loan_date_type":2,"bidding_days":0}</t>
+  </si>
+  <si>
     <t>竞标天数为负数</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","title":"竞标天数为负数","amount":2000,"loan_rate":18,"loan_term":30,"loan_date_type":2,"bidding_days":-1}</t>
+  </si>
+  <si>
     <t>竞标天数为1</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","title":"竞标天数为1","amount":2000,"loan_rate":18,"loan_term":30,"loan_date_type":2,"bidding_days":1}</t>
+  </si>
+  <si>
     <t>竞标天数为10</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","title":"竞标天数为10","amount":2000,"loan_rate":18,"loan_term":30,"loan_date_type":2,"bidding_days":10}</t>
+  </si>
+  <si>
     <t>添加项目成功</t>
   </si>
   <si>
-    <t>{"member_id":"#wrong_member_id#","title":"错误会员号","amount":100,"loan_rate":18,"loan_term":6,"loan_date_type":1,"bidding_days":3}</t>
-  </si>
-  <si>
-    <t>{"member_id":"","title":"会员号为空","amount":100,"loan_rate":18,"loan_term":6,"loan_date_type":1,"bidding_days":3}</t>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","title":"","amount":100,"loan_rate":18,"loan_term":6,"loan_date_type":1,"bidding_days":3}</t>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","title":"借款金额为负数","amount":-100,"loan_rate":18,"loan_term":6,"loan_date_type":1,"bidding_days":10}</t>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","title":"借款金额为零","amount":0,"loan_rate":18,"loan_term":6,"loan_date_type":1,"bidding_days":10}</t>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","title":"借款期限为6个月","amount":2000,"loan_rate":18,"loan_term":6,"loan_date_type":1,"bidding_days":10}</t>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","title":"借款期限为30天","amount":2000,"loan_rate":18,"loan_term":30,"loan_date_type":2,"bidding_days":10}</t>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","title":"借款期限类型错误","amount":2000,"loan_rate":18,"loan_term":30,"loan_date_type":3,"bidding_days":10}</t>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","title":"竞标天数为0","amount":2000,"loan_rate":18,"loan_term":30,"loan_date_type":2,"bidding_days":0}</t>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","title":"竞标天数为负数","amount":2000,"loan_rate":18,"loan_term":30,"loan_date_type":2,"bidding_days":-1}</t>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","title":"竞标天数为1","amount":2000,"loan_rate":18,"loan_term":30,"loan_date_type":2,"bidding_days":1}</t>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","title":"竞标天数为10","amount":2000,"loan_rate":18,"loan_term":30,"loan_date_type":2,"bidding_days":10}</t>
-  </si>
-  <si>
     <t>{"member_id":"#member_id#","title":"添加项目成功","amount":2000,"loan_rate":18,"loan_term":30,"loan_date_type":2,"bidding_days":10}</t>
   </si>
   <si>
-    <t>{"member_id":"#member_id#","title":"amount为空","amount":"","loan_rate":18,"loan_term":6,"loan_date_type":1,"bidding_days":3}</t>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","title":"loan_term为空","amount":100,"loan_rate":18,"loan_term":"","loan_date_type":1,"bidding_days":3}</t>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","title":"loan_date_type为空","amount":100,"loan_rate":18,"loan_term":6,"loan_date_type":"","bidding_days":3}</t>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","title":"bidding_days为空","amount":100,"loan_rate":18,"loan_term":6,"loan_date_type":1,"bidding_days":""}</t>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","title":"loan_rate为空","amount":100,"loan_rate":"","loan_term":6,"loan_date_type":1,"bidding_days":3}</t>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","title":"借款期限参数错误","amount":2000,"loan_rate":18,"loan_term":500,"loan_date_type":1,"bidding_days":10}</t>
+    <t>审核通过</t>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+  </si>
+  <si>
+    <t>{"loan_id":"#loan_id#","approved_or_not":true}</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>{"$..code":0,"$..msg":"OK"}</t>
+  </si>
+  <si>
+    <t>审核不通过</t>
+  </si>
+  <si>
+    <t>{"loan_id":"#loan_id#","approved_or_not":false}</t>
+  </si>
+  <si>
+    <t>不存在loan_id</t>
+  </si>
+  <si>
+    <t>{"loan_id":"#wrong_loan_id#","approved_or_not":false}</t>
+  </si>
+  <si>
+    <t>{"$..code":2,"$..msg":"项目不存在"}</t>
+  </si>
+  <si>
+    <t>loan_id为空</t>
+  </si>
+  <si>
+    <t>{"loan_id":"","approved_or_not":true}</t>
+  </si>
+  <si>
+    <t>{"$..code":2,"$..msg":"数值格式异常"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -525,7 +565,104 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -533,12 +670,51 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,8 +727,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -560,12 +922,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -577,22 +1178,65 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -879,31 +1523,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.425" style="2" customWidth="1"/>
     <col min="3" max="3" width="26" style="2" customWidth="1"/>
     <col min="4" max="4" width="65" style="2" customWidth="1"/>
-    <col min="5" max="5" width="49.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="49.8583333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.425" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.5666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.425" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.8583333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,48 +2129,50 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C9" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C10" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C11" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C12" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C13" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C14" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C15" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C16" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C17" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C18" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C19" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C20" r:id="rId1" display="/member/register"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.2833333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.8583333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.8583333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.425" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1790,27 +2436,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="40.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.2833333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.8583333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.1416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.425" style="2" customWidth="1"/>
+    <col min="9" max="9" width="40.8583333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2074,27 +2722,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.1416666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.425" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.1416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.1416666666667" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2386,27 +3036,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="130.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.56666666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="11.425" customWidth="1"/>
+    <col min="4" max="4" width="130.708333333333" customWidth="1"/>
+    <col min="5" max="5" width="40.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +3087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2446,7 +3098,7 @@
         <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -2458,7 +3110,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2469,7 +3121,7 @@
         <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -2481,18 +3133,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -2504,18 +3156,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
         <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
@@ -2527,18 +3179,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
@@ -2550,18 +3202,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
         <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
@@ -2573,18 +3225,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
         <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
@@ -2596,18 +3248,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
         <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
         <v>69</v>
@@ -2619,18 +3271,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
         <v>69</v>
@@ -2642,18 +3294,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
         <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
         <v>69</v>
@@ -2665,18 +3317,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
         <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s">
         <v>69</v>
@@ -2688,18 +3340,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
         <v>69</v>
@@ -2711,18 +3363,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
         <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
         <v>69</v>
@@ -2734,18 +3386,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
         <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
         <v>69</v>
@@ -2757,18 +3409,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
         <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
         <v>69</v>
@@ -2785,13 +3437,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
         <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E17" t="s">
         <v>69</v>
@@ -2808,13 +3460,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
         <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E18" t="s">
         <v>69</v>
@@ -2831,13 +3483,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
         <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E19" t="s">
         <v>69</v>
@@ -2854,13 +3506,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
         <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E20" t="s">
         <v>69</v>
@@ -2874,5 +3526,152 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="39.375" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>